--- a/DragAndDrop/Assets/5.Data/Electric_bullet.xlsx
+++ b/DragAndDrop/Assets/5.Data/Electric_bullet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\Junhee_git\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B717FCEF-02F9-4388-880F-7C1451A3668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ECED875-0DE3-491B-8C24-EB708D71E0E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,10 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">time </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>action_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,11 +44,15 @@
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,12 +429,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C763AE8-2616-4896-A1C8-F20599CA7563}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -444,32 +441,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>81.75</v>
+        <v>82.5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -477,10 +474,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>84</v>
+        <v>85.5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -488,10 +485,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>85.5</v>
+        <v>88.5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -499,10 +496,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>88.5</v>
+        <v>91.5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -510,10 +507,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>91.5</v>
+        <v>106.5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -521,21 +518,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>106.5</v>
+        <v>109.5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -543,10 +540,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>108</v>
+        <v>112.5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -554,39 +551,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>109.5</v>
+        <v>115.5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>112.5</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>115.5</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>